--- a/Casos de prueba.xlsx
+++ b/Casos de prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Proyecto_Semestral_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EA194D-73F7-4015-BE02-1EB4F941812A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922A3A70-8C52-4931-A783-CDBE24C5BA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="291">
   <si>
     <t>Casos de Prueba</t>
   </si>
@@ -912,7 +912,10 @@
     <t>Martin Ress, Thomas Quiroga</t>
   </si>
   <si>
-    <t>Ok</t>
+    <t>de 82</t>
+  </si>
+  <si>
+    <t>impl</t>
   </si>
 </sst>
 </file>
@@ -996,7 +999,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1039,6 +1042,18 @@
         <bgColor rgb="FF0000FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1067,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1143,6 +1158,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1163,6 +1190,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D83" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1428,16 +1467,16 @@
     </row>
     <row r="2" spans="1:25" ht="15.6">
       <c r="A2" s="11"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -1482,16 +1521,16 @@
     </row>
     <row r="4" spans="1:25" ht="14.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="41" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="12"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1512,16 +1551,16 @@
     </row>
     <row r="5" spans="1:25" ht="14.4">
       <c r="A5" s="11"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="41" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="12"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1542,16 +1581,16 @@
     </row>
     <row r="6" spans="1:25" ht="14.4">
       <c r="A6" s="11"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39">
         <v>44803</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="12"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1616,10 +1655,10 @@
       <c r="G8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -1686,8 +1725,8 @@
       <c r="G10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>289</v>
+      <c r="H10" s="20">
+        <v>1</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="11"/>
@@ -1728,8 +1767,8 @@
       <c r="G11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>289</v>
+      <c r="H11" s="20">
+        <v>1</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="11"/>
@@ -1770,8 +1809,8 @@
       <c r="G12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>289</v>
+      <c r="H12" s="20">
+        <v>1</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="11"/>
@@ -1810,8 +1849,8 @@
       <c r="G13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>289</v>
+      <c r="H13" s="20">
+        <v>1</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="11"/>
@@ -1850,8 +1889,8 @@
       <c r="G14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>289</v>
+      <c r="H14" s="20">
+        <v>1</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="11"/>
@@ -2376,18 +2415,20 @@
       <c r="C28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21" t="s">
+      <c r="F28" s="48"/>
+      <c r="G28" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="22"/>
+      <c r="H28" s="47">
+        <v>1</v>
+      </c>
+      <c r="I28" s="49"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -2413,20 +2454,22 @@
       <c r="C29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="22"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="49" t="s">
+        <v>290</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -2452,20 +2495,20 @@
       <c r="C30" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="22"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -2491,18 +2534,20 @@
       <c r="C31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21" t="s">
+      <c r="F31" s="48"/>
+      <c r="G31" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="22"/>
+      <c r="H31" s="47">
+        <v>1</v>
+      </c>
+      <c r="I31" s="49"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -2528,20 +2573,20 @@
       <c r="C32" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="22"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="49"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -2567,18 +2612,20 @@
       <c r="C33" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21" t="s">
+      <c r="F33" s="48"/>
+      <c r="G33" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="22"/>
+      <c r="H33" s="47">
+        <v>1</v>
+      </c>
+      <c r="I33" s="49"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -2604,20 +2651,20 @@
       <c r="C34" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="22"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="49"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
@@ -2643,18 +2690,20 @@
       <c r="C35" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21" t="s">
+      <c r="F35" s="48"/>
+      <c r="G35" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="22"/>
+      <c r="H35" s="47">
+        <v>1</v>
+      </c>
+      <c r="I35" s="49"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
@@ -2680,20 +2729,20 @@
       <c r="C36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="22"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="49"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
@@ -2719,18 +2768,20 @@
       <c r="C37" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21" t="s">
+      <c r="F37" s="48"/>
+      <c r="G37" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="22"/>
+      <c r="H37" s="47">
+        <v>1</v>
+      </c>
+      <c r="I37" s="49"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
@@ -3596,7 +3647,9 @@
       <c r="G60" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H60" s="20"/>
+      <c r="H60" s="20">
+        <v>1</v>
+      </c>
       <c r="I60" s="22"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
@@ -3633,7 +3686,9 @@
       <c r="G61" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="H61" s="20"/>
+      <c r="H61" s="20">
+        <v>1</v>
+      </c>
       <c r="I61" s="22"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
@@ -3670,7 +3725,9 @@
       <c r="G62" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="H62" s="20"/>
+      <c r="H62" s="20">
+        <v>1</v>
+      </c>
       <c r="I62" s="22"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
@@ -3707,7 +3764,9 @@
       <c r="G63" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="H63" s="20"/>
+      <c r="H63" s="20">
+        <v>1</v>
+      </c>
       <c r="I63" s="22"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -3781,7 +3840,9 @@
       <c r="G65" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="H65" s="20"/>
+      <c r="H65" s="20">
+        <v>1</v>
+      </c>
       <c r="I65" s="22"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
@@ -3818,7 +3879,9 @@
       <c r="G66" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="H66" s="20"/>
+      <c r="H66" s="20">
+        <v>1</v>
+      </c>
       <c r="I66" s="22"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
@@ -3855,7 +3918,9 @@
       <c r="G67" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="H67" s="20"/>
+      <c r="H67" s="20">
+        <v>1</v>
+      </c>
       <c r="I67" s="22"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
@@ -3892,7 +3957,9 @@
       <c r="G68" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H68" s="20"/>
+      <c r="H68" s="20">
+        <v>1</v>
+      </c>
       <c r="I68" s="22"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
@@ -3929,7 +3996,9 @@
       <c r="G69" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="H69" s="20"/>
+      <c r="H69" s="20">
+        <v>1</v>
+      </c>
       <c r="I69" s="22"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
@@ -3966,7 +4035,9 @@
       <c r="G70" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="H70" s="20"/>
+      <c r="H70" s="20">
+        <v>1</v>
+      </c>
       <c r="I70" s="22"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
@@ -4040,7 +4111,9 @@
       <c r="G72" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="H72" s="20"/>
+      <c r="H72" s="20">
+        <v>1</v>
+      </c>
       <c r="I72" s="22"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
@@ -4077,7 +4150,9 @@
       <c r="G73" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H73" s="20"/>
+      <c r="H73" s="20">
+        <v>1</v>
+      </c>
       <c r="I73" s="22"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
@@ -4104,18 +4179,18 @@
       <c r="C74" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="23" t="s">
+      <c r="F74" s="35"/>
+      <c r="G74" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="H74" s="20"/>
-      <c r="I74" s="22"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="36"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
@@ -4141,18 +4216,18 @@
       <c r="C75" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="23" t="s">
+      <c r="F75" s="35"/>
+      <c r="G75" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="H75" s="20"/>
-      <c r="I75" s="22"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="36"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
@@ -4178,18 +4253,18 @@
       <c r="C76" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="23" t="s">
+      <c r="F76" s="35"/>
+      <c r="G76" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="H76" s="20"/>
-      <c r="I76" s="22"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="36"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
@@ -4215,18 +4290,18 @@
       <c r="C77" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="23" t="s">
+      <c r="F77" s="35"/>
+      <c r="G77" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="H77" s="20"/>
-      <c r="I77" s="22"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="36"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
@@ -4252,18 +4327,18 @@
       <c r="C78" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="23" t="s">
+      <c r="F78" s="35"/>
+      <c r="G78" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="H78" s="20"/>
-      <c r="I78" s="22"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="36"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
@@ -4289,18 +4364,18 @@
       <c r="C79" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E79" s="20" t="s">
+      <c r="E79" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="23" t="s">
+      <c r="F79" s="35"/>
+      <c r="G79" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="H79" s="20"/>
-      <c r="I79" s="22"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="36"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
@@ -4326,18 +4401,18 @@
       <c r="C80" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E80" s="20" t="s">
+      <c r="E80" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="23" t="s">
+      <c r="F80" s="35"/>
+      <c r="G80" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="H80" s="20"/>
-      <c r="I80" s="22"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="36"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
@@ -4363,18 +4438,18 @@
       <c r="C81" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E81" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="23" t="s">
+      <c r="F81" s="35"/>
+      <c r="G81" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="H81" s="20"/>
-      <c r="I81" s="22"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="36"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
@@ -4400,18 +4475,18 @@
       <c r="C82" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="20" t="s">
+      <c r="E82" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="23" t="s">
+      <c r="F82" s="35"/>
+      <c r="G82" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="H82" s="20"/>
-      <c r="I82" s="22"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="36"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
@@ -4437,18 +4512,18 @@
       <c r="C83" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="23" t="s">
+      <c r="F83" s="35"/>
+      <c r="G83" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="H83" s="20"/>
-      <c r="I83" s="22"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="36"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
@@ -4484,7 +4559,9 @@
       <c r="G84" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="H84" s="20"/>
+      <c r="H84" s="20">
+        <v>1</v>
+      </c>
       <c r="I84" s="22"/>
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
@@ -4511,18 +4588,18 @@
       <c r="C85" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E85" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="23" t="s">
+      <c r="F85" s="35"/>
+      <c r="G85" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="H85" s="20"/>
-      <c r="I85" s="22"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="36"/>
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
@@ -4547,18 +4624,18 @@
       <c r="C86" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="23" t="s">
+      <c r="F86" s="35"/>
+      <c r="G86" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="H86" s="20"/>
-      <c r="I86" s="22"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="36"/>
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
@@ -4583,18 +4660,18 @@
       <c r="C87" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="23" t="s">
+      <c r="F87" s="35"/>
+      <c r="G87" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="H87" s="20"/>
-      <c r="I87" s="22"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="36"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
@@ -4629,7 +4706,9 @@
       <c r="G88" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H88" s="20"/>
+      <c r="H88" s="20">
+        <v>1</v>
+      </c>
       <c r="I88" s="22"/>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
@@ -4665,7 +4744,9 @@
       <c r="G89" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="H89" s="20"/>
+      <c r="H89" s="20">
+        <v>1</v>
+      </c>
       <c r="I89" s="22"/>
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
@@ -4701,7 +4782,9 @@
       <c r="G90" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="H90" s="20"/>
+      <c r="H90" s="20">
+        <v>1</v>
+      </c>
       <c r="I90" s="22"/>
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
@@ -4727,8 +4810,13 @@
       <c r="E91" s="12"/>
       <c r="F91" s="29"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="H91" s="11">
+        <f>SUM(H1:H90)</f>
+        <v>26</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>289</v>
+      </c>
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
       <c r="L91" s="11"/>
